--- a/Assets/SkillTreeSlot.xlsx
+++ b/Assets/SkillTreeSlot.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
